--- a/Automated Costing.xlsx
+++ b/Automated Costing.xlsx
@@ -1,70 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/vincent_viljoen_dimensiondata_com/Documents/Desktop/Cloud Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/vincent_viljoen_dimensiondata_com/Documents/Desktop/Cloud Project/Automated Cloud Pricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC1048CBC99B75DC5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D988E1C-2EC5-4AC3-B907-F3CF35BE31EB}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="11_F25DC773A252ABDACC1048CBC99B75DC5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45BFFF27-3066-4304-AA72-9FC8E6A2F25B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logic" sheetId="1" r:id="rId1"/>
-    <sheet name="Input" sheetId="2" r:id="rId2"/>
-    <sheet name="Output" sheetId="3" r:id="rId3"/>
+    <sheet name="IDs" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Input" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="179">
+  <si>
+    <t>Virtual Machines</t>
+  </si>
   <si>
     <t>Series</t>
   </si>
   <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Series based on ration</t>
+  </si>
+  <si>
     <t>D Series</t>
   </si>
   <si>
+    <t>1:4 ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Number of cpu's</t>
+  </si>
+  <si>
     <t>F series</t>
   </si>
   <si>
+    <t>1:2 ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Type of VM (Linux/Windows/SQL…..)</t>
+  </si>
+  <si>
     <t>E Series</t>
   </si>
   <si>
-    <t>1:4 ratio</t>
-  </si>
-  <si>
-    <t>1:2 ratio</t>
-  </si>
-  <si>
     <t>1:8 ratio</t>
   </si>
   <si>
-    <t>Virtual Machines</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Series based on ration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Number of cpu's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Type of VM (Linux/Windows/SQL…..)</t>
-  </si>
-  <si>
     <t>Storage Disks</t>
   </si>
   <si>
@@ -75,13 +85,502 @@
   </si>
   <si>
     <t xml:space="preserve"> - General disk</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create table that corresponds services with IDs</t>
+  </si>
+  <si>
+    <t>Standard_F1</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>13452755-6144-41d7-9c6c-adfadb6cde37</t>
+  </si>
+  <si>
+    <t>Standard_F2</t>
+  </si>
+  <si>
+    <t>dc226be0-5d5d-4044-8f10-ee150e9e6341</t>
+  </si>
+  <si>
+    <t>Standard_F4</t>
+  </si>
+  <si>
+    <t>ee905624-febc-40b0-90d3-47b5629c0c69</t>
+  </si>
+  <si>
+    <t>Standard_F8</t>
+  </si>
+  <si>
+    <t>e1b20ea4-73b2-4252-a312-9e3aa311624a</t>
+  </si>
+  <si>
+    <t>Standard_F16</t>
+  </si>
+  <si>
+    <t>930a20d5-095b-487f-909f-f545e5ef97eb</t>
+  </si>
+  <si>
+    <t>Standard_D2ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D4ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D8ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D16ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D32ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D48ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D64ds_v5</t>
+  </si>
+  <si>
+    <t>Standard_D96ds_v5</t>
+  </si>
+  <si>
+    <t>8c9b1542-4bfa-5503-b4b7-d269eacfdeda</t>
+  </si>
+  <si>
+    <t>d4849e62-e75e-5cdf-96f0-3b2cc33b7df1</t>
+  </si>
+  <si>
+    <t>ea1b7f1d-1186-50a2-ab8b-56a5a99988a2</t>
+  </si>
+  <si>
+    <t>13260575-7650-5990-8d1f-87d3f992cf18</t>
+  </si>
+  <si>
+    <t>772a549a-39d5-5cd8-b2a8-fb96eee17e68</t>
+  </si>
+  <si>
+    <t>fbbc5eac-c238-5610-b0de-98db1dfae323</t>
+  </si>
+  <si>
+    <t>f6a4ff1a-f1dc-50e1-af09-18d59fe0593b</t>
+  </si>
+  <si>
+    <t>5de7008b-b94a-5584-bd3b-c8c2a16e3a80</t>
+  </si>
+  <si>
+    <t>Ddsv5</t>
+  </si>
+  <si>
+    <t>Ev5</t>
+  </si>
+  <si>
+    <t>Standard_E2_v5</t>
+  </si>
+  <si>
+    <t>Standard_E4_v5</t>
+  </si>
+  <si>
+    <t>Standard_E8_v5</t>
+  </si>
+  <si>
+    <t>Standard_E16_v5</t>
+  </si>
+  <si>
+    <t>Standard_E20_v5</t>
+  </si>
+  <si>
+    <t>Standard_E32_v5</t>
+  </si>
+  <si>
+    <t>Standard_E48_v5</t>
+  </si>
+  <si>
+    <t>Standard_E64_v5</t>
+  </si>
+  <si>
+    <t>Standard_E96_v5</t>
+  </si>
+  <si>
+    <t>Standard_E104i_v5</t>
+  </si>
+  <si>
+    <t>20c1bad1-1085-5a54-9cc7-05912b8c2ad6</t>
+  </si>
+  <si>
+    <t>5a46f94f-9a84-5299-84a8-1165bd77c0ca</t>
+  </si>
+  <si>
+    <t>bc8a2b62-95d6-53ea-b8fe-8a999534d946</t>
+  </si>
+  <si>
+    <t>9c2bbf1e-f4f7-5659-9248-87b05173fc0c</t>
+  </si>
+  <si>
+    <t>41dc5742-3c5f-5888-abe9-540bad58caf2</t>
+  </si>
+  <si>
+    <t>ac12a355-c7b5-5148-b99f-e31020075aa2</t>
+  </si>
+  <si>
+    <t>44282c04-89f1-5d63-a314-3fdfeae95d3b</t>
+  </si>
+  <si>
+    <t>b2728899-4596-5371-83ba-c95dd43973f0</t>
+  </si>
+  <si>
+    <t>9af6e530-9dc3-5e69-95fa-e280a0edde12</t>
+  </si>
+  <si>
+    <t>6dbd764b-c7f0-5269-a359-90744e3a0133</t>
+  </si>
+  <si>
+    <t>Standard SSD</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Premium SSD</t>
+  </si>
+  <si>
+    <t>e9631fbe-78fe-4193-9664-ff654119b0d4</t>
+  </si>
+  <si>
+    <t>826054bb-cf57-464e-8e59-6cd1aa587b94</t>
+  </si>
+  <si>
+    <t>c06db6a5-9490-48b0-8603-eb1b2baf0904</t>
+  </si>
+  <si>
+    <t>68784ef2-292f-4820-8d32-055ae5d9e206</t>
+  </si>
+  <si>
+    <t>c38c57ce-dba6-4237-a26d-13885f258ef3</t>
+  </si>
+  <si>
+    <t>fcc0fd49-a41b-48e4-bb40-abe85d015f6b</t>
+  </si>
+  <si>
+    <t>8f39d0a5-e422-4b14-90fe-69b1f1d673af</t>
+  </si>
+  <si>
+    <t>4dec6f1c-d7d2-43af-841d-e1a6532dca2c</t>
+  </si>
+  <si>
+    <t>5bdaf45a-f905-4d52-906c-87a6f2171e6c</t>
+  </si>
+  <si>
+    <t>64c661e5-0732-4a14-8881-390546af76e5</t>
+  </si>
+  <si>
+    <t>a15dae58-2cce-454d-b150-455e5aa6a046</t>
+  </si>
+  <si>
+    <t>80eac1f3-df27-44bf-8329-d871a74183be</t>
+  </si>
+  <si>
+    <t>4fe19694-fc74-438a-b3d4-51e193222722</t>
+  </si>
+  <si>
+    <t>fc40e627-d498-428b-9347-0dbd836e7473</t>
+  </si>
+  <si>
+    <t>c4d3f144-07bd-424d-bbe9-ec00b690d59c</t>
+  </si>
+  <si>
+    <t>208d3bfc-993b-4ff0-9647-0986137f01c9</t>
+  </si>
+  <si>
+    <t>1903f910-3f99-4b96-bb0d-70cafb894889</t>
+  </si>
+  <si>
+    <t>a381b4e1-7a4f-4253-b68f-134563df6049</t>
+  </si>
+  <si>
+    <t>4b305e71-6111-4612-918a-d4c40867b2fb</t>
+  </si>
+  <si>
+    <t>6e981267-631d-4377-9dd9-739d0ce693de</t>
+  </si>
+  <si>
+    <t>a4cd833b-f904-448a-a2ab-699cdab3c308</t>
+  </si>
+  <si>
+    <t>5a98caf9-7fdb-42c6-a98c-f7a5875cb1da</t>
+  </si>
+  <si>
+    <t>68cc7ee1-d109-4ecf-9c08-948559991efb</t>
+  </si>
+  <si>
+    <t>98412ef1-9552-49de-9bd2-cfc804c1706f</t>
+  </si>
+  <si>
+    <t>b072e9cb-3f1c-4fb3-b515-3f5c45ef0f9f</t>
+  </si>
+  <si>
+    <t>20707ff1-5a52-4213-afe5-a22769f25d0e</t>
+  </si>
+  <si>
+    <t>Windows Licence</t>
+  </si>
+  <si>
+    <t>Linux Red Hat Enterprise</t>
+  </si>
+  <si>
+    <t>SQL Enterprise</t>
+  </si>
+  <si>
+    <t>VM Pay-as you go (With and without Windows)</t>
+  </si>
+  <si>
+    <t>VM ID (Pay-as-you-go &amp; 1 Year &amp; 3 Year)</t>
+  </si>
+  <si>
+    <t>9e953daf-9fb6-4c18-a5fb-27e3983880b2</t>
+  </si>
+  <si>
+    <t>f65a06cf-c9c3-47a2-8104-f17a8542215a</t>
+  </si>
+  <si>
+    <t>12699064-6912-437d-8cf7-9a50364cfb1d</t>
+  </si>
+  <si>
+    <t>1f12d1fa-f1c7-5c9d-b6b3-7224e36a7400</t>
+  </si>
+  <si>
+    <t>05b1889b-0f9f-465b-942c-07d2317660e2</t>
+  </si>
+  <si>
+    <t>2f96d035-3bac-46d6-b2bc-c6daa0938536</t>
+  </si>
+  <si>
+    <t>2e662012-a03e-4e67-891d-748666937ec1</t>
+  </si>
+  <si>
+    <t>dc7ab2e8-27b1-4b96-b55b-f0b09f5f68a2</t>
+  </si>
+  <si>
+    <t>b99d40ae-41fe-4d1d-842b-56d72f3d15ee</t>
+  </si>
+  <si>
+    <t>a4daffb4-96f4-4fc5-b1e6-fd3a2cf3595e</t>
+  </si>
+  <si>
+    <t>2c3d06ed-0e7c-4c46-8815-8f302fb7971c</t>
+  </si>
+  <si>
+    <t>1cb88381-0905-4843-9ba2-7914066aabe5</t>
+  </si>
+  <si>
+    <t>11516ef0-867d-56fd-955f-84cfcb816aff</t>
+  </si>
+  <si>
+    <t>637b7c77-65ad-4486-9cc7-dc7b3e9a8731</t>
+  </si>
+  <si>
+    <t>5ba5f82b-a74d-421a-9da2-66efc0928b7e</t>
+  </si>
+  <si>
+    <t>0391f0bf-d055-47ec-bb57-201d27105df7</t>
+  </si>
+  <si>
+    <t>603f58d1-1e96-460b-a933-ce3775ac7e2e</t>
+  </si>
+  <si>
+    <t>7f3e1d2c-74d6-4f47-b1f5-f929290ece86</t>
+  </si>
+  <si>
+    <t>350fc83a-b36c-4043-b990-3e4e7f3b5367</t>
+  </si>
+  <si>
+    <t>02968a6b-1654-4495-ada6-13f378ba7172</t>
+  </si>
+  <si>
+    <t>2f6d02be-a7f9-4918-96d1-c291793047e6</t>
+  </si>
+  <si>
+    <t>7dda464c-096e-52fd-accf-e7dcc72fdc9c</t>
+  </si>
+  <si>
+    <t>6fdab81b-4284-4df9-8939-c237cc7462fe</t>
+  </si>
+  <si>
+    <t>d69fc460-91f2-41f2-a0dd-69b6534dddc9</t>
+  </si>
+  <si>
+    <t>5ee01e91-f4bf-53a9-9447-f2d5dc7a38f6</t>
+  </si>
+  <si>
+    <t>392a562c-b603-5327-a116-4a6dd11dff11</t>
+  </si>
+  <si>
+    <t>1ac3d235-ca74-5e8a-ba60-55b0fe00f227</t>
+  </si>
+  <si>
+    <t>736e9e58-4c36-5003-990b-b7370f8fc376</t>
+  </si>
+  <si>
+    <t>17722060-a0fd-50f4-9067-8571491976d4</t>
+  </si>
+  <si>
+    <t>044daf0b-963b-565a-818e-0e085489bc79</t>
+  </si>
+  <si>
+    <t>5246e2ec-0a6d-57fd-be61-85d1bc62312b</t>
+  </si>
+  <si>
+    <t>0d5bdf46-b719-4b1f-a780-b9bdfffd0591</t>
+  </si>
+  <si>
+    <t>b79ddebf-0377-428e-8ecf-830f49e963c6</t>
+  </si>
+  <si>
+    <t>1c678d87-25bd-525c-af8c-a8ff88b25675</t>
+  </si>
+  <si>
+    <t>7ea1c636-e896-5c95-8123-4cbd1a35f6d1</t>
+  </si>
+  <si>
+    <t>945e2dca-da6a-548c-af9c-5778963947e6</t>
+  </si>
+  <si>
+    <t>0cd6e819-e11e-596c-ae1e-13ecf5c255b6</t>
+  </si>
+  <si>
+    <t>ab5dda06-bb6d-59b1-8177-520a908feb62</t>
+  </si>
+  <si>
+    <t>175434d8-75f9-474b-9906-5d151b6bed84</t>
+  </si>
+  <si>
+    <t>5d3bcb43-854f-50d5-8331-3d78cac2cfc0</t>
+  </si>
+  <si>
+    <t>f438a8b0-a0a8-4633-8cb1-21daba7270a0</t>
+  </si>
+  <si>
+    <t>5c9e4ce4-bc41-5fe0-9a87-29cb97d7dfea</t>
+  </si>
+  <si>
+    <t>19097f32-543b-5122-8a8f-1c10070d82de</t>
+  </si>
+  <si>
+    <t>34aa0924-fc3d-516d-9c9c-43907f984a69</t>
+  </si>
+  <si>
+    <t>b157360a-7307-52ae-9bd1-50408e49d173</t>
+  </si>
+  <si>
+    <t>808cf5df-34d2-4733-8c26-b0db1215829f</t>
+  </si>
+  <si>
+    <t>578759f8-97f1-421e-b249-ce3f11c2293e</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>E1 LRS</t>
+  </si>
+  <si>
+    <t>E2 LRS</t>
+  </si>
+  <si>
+    <t>E3 LRS</t>
+  </si>
+  <si>
+    <t>E4 LRS</t>
+  </si>
+  <si>
+    <t>E6 LRS</t>
+  </si>
+  <si>
+    <t>E10 LRS</t>
+  </si>
+  <si>
+    <t>E15 LRS</t>
+  </si>
+  <si>
+    <t>E20 LRS</t>
+  </si>
+  <si>
+    <t>E30 LRS</t>
+  </si>
+  <si>
+    <t>E40 LRS</t>
+  </si>
+  <si>
+    <t>E50 LRS</t>
+  </si>
+  <si>
+    <t>E60 LRS</t>
+  </si>
+  <si>
+    <t>E70 LRS</t>
+  </si>
+  <si>
+    <t>E80 LRS</t>
+  </si>
+  <si>
+    <t>P1 LRS</t>
+  </si>
+  <si>
+    <t>P2 LRS</t>
+  </si>
+  <si>
+    <t>P3 LRS</t>
+  </si>
+  <si>
+    <t>P4 LRS</t>
+  </si>
+  <si>
+    <t>P6 LRS</t>
+  </si>
+  <si>
+    <t>P10 LRS</t>
+  </si>
+  <si>
+    <t>P15 LRS</t>
+  </si>
+  <si>
+    <t>P20 LRS</t>
+  </si>
+  <si>
+    <t>P30 LRS</t>
+  </si>
+  <si>
+    <t>P40 LRS</t>
+  </si>
+  <si>
+    <t>P50 LRS</t>
+  </si>
+  <si>
+    <t>P60 LRS</t>
+  </si>
+  <si>
+    <t>P70 LRS</t>
+  </si>
+  <si>
+    <t>P80 LRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +595,92 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF4C4C51"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF4C4C51"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF4C4C51"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4C4C51"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -161,13 +739,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,66 +1044,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
+      <c r="B1" s="1"/>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -515,13 +1113,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -531,6 +1140,1060 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3C4FED-7036-43FB-B6CB-75C92F82F6A1}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2491BD07-A403-420E-8D07-A79AD7AEBF11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCA02F5-62CD-40B5-BE7B-CE2C9E1DAAE9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -544,14 +2207,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEDA7B2-66E5-4517-B4D3-C0BEF73B02F6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077849C757185B54DB2B9488D634D0F16" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2144c38997457a0b5c370c1ea073106f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9fa3a13-3f74-4c90-b374-6e7736eb4ab0" xmlns:ns3="e5cff218-a536-495e-97db-104270a3a196" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b4a5a969be6476fc0291d7d99efb867" ns2:_="" ns3:_="">
+    <xsd:import namespace="f9fa3a13-3f74-4c90-b374-6e7736eb4ab0"/>
+    <xsd:import namespace="e5cff218-a536-495e-97db-104270a3a196"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f9fa3a13-3f74-4c90-b374-6e7736eb4ab0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e5cff218-a536-495e-97db-104270a3a196" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F928BE-EC8C-4E6C-A012-99A3CB93484E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f9fa3a13-3f74-4c90-b374-6e7736eb4ab0"/>
+    <ds:schemaRef ds:uri="e5cff218-a536-495e-97db-104270a3a196"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27355EAF-948B-44FF-A8FD-F6204346D206}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f9fa3a13-3f74-4c90-b374-6e7736eb4ab0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e5cff218-a536-495e-97db-104270a3a196"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29964F3A-0280-468B-B554-DE3D5D923D1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>